--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_542.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_542.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32468-d77144-Reviews-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Hacienda-Heights.h996207.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_542.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_542.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,267 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r493866113-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>32468</t>
+  </si>
+  <si>
+    <t>77144</t>
+  </si>
+  <si>
+    <t>493866113</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>The Staff</t>
+  </si>
+  <si>
+    <t>An unexpected medical emergency with my dog caused me to have an extended 7-day stay at this Motel 6 in Hacienda Heights. The first room I was given had a smokey odor, I asked for a new room, they happily obliged. Two days later, I checked out and then back in. The staff. already anticipating my smell issues asked if I would like to smell the next room first, I did, and it was fine. Motel 6 allows dogs at no extra charge, and the room has a faux wood floor which I really liked for the sole purpose of "knowing" what was on it versus a dark, patterned carpet. I wiped it down with wipes and paper towels every day, to make certain it was clean and kept my shoes off inside. (*The floors can get dirty-black fast due to the black pavement right outside the door.) The rest of the room and amenities are what you can expect from a 1 star, value motel, but overall the room was clean. However, it was the Staff that made this stay excellent; every single one I spoke with, from the front desk clerks to housekeeping, went above and beyond to make my stay comfortable. They were so very helpful, friendly and compassionate.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Los Angeles - Hacienda Heights, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>An unexpected medical emergency with my dog caused me to have an extended 7-day stay at this Motel 6 in Hacienda Heights. The first room I was given had a smokey odor, I asked for a new room, they happily obliged. Two days later, I checked out and then back in. The staff. already anticipating my smell issues asked if I would like to smell the next room first, I did, and it was fine. Motel 6 allows dogs at no extra charge, and the room has a faux wood floor which I really liked for the sole purpose of "knowing" what was on it versus a dark, patterned carpet. I wiped it down with wipes and paper towels every day, to make certain it was clean and kept my shoes off inside. (*The floors can get dirty-black fast due to the black pavement right outside the door.) The rest of the room and amenities are what you can expect from a 1 star, value motel, but overall the room was clean. However, it was the Staff that made this stay excellent; every single one I spoke with, from the front desk clerks to housekeeping, went above and beyond to make my stay comfortable. They were so very helpful, friendly and compassionate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r449442540-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>449442540</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>A better stay (than expected) at Motel 6 Hacienda Heights, CA...</t>
+  </si>
+  <si>
+    <t>This time, I would like to share my experience staying at the Motel 6 Hacienda Heights in April 2016. I often stay in this hotel property in the past when I plan to visit Cabazon factory outlet the next morning as it is located off the 60 freeway half way to Cabazon. It is good for a night stay only.However, I was quite surprised to find that they did renovate the hotel's room totally during my stay this time. It gave a better feeling staying in a newly renovated room. Although the (renovated) room was not luxurious but it did serve its function. As I had mentioned, don't expect to find a 3~4 stars' facilities in this motel but it was fairly good enough for a night's stay at the price they had offered.No breakfast offered in the hotel, no wifi but someone would find free coffee in the lobby. The hotel property was fairly safe and it was not noisy although it was located off a busy freeway. Based on my previous stays in this particular motel, I have no hesitation to recommend this motel property to everyone who is looking for a decent accommodation at reasonable rate during their future visit in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This time, I would like to share my experience staying at the Motel 6 Hacienda Heights in April 2016. I often stay in this hotel property in the past when I plan to visit Cabazon factory outlet the next morning as it is located off the 60 freeway half way to Cabazon. It is good for a night stay only.However, I was quite surprised to find that they did renovate the hotel's room totally during my stay this time. It gave a better feeling staying in a newly renovated room. Although the (renovated) room was not luxurious but it did serve its function. As I had mentioned, don't expect to find a 3~4 stars' facilities in this motel but it was fairly good enough for a night's stay at the price they had offered.No breakfast offered in the hotel, no wifi but someone would find free coffee in the lobby. The hotel property was fairly safe and it was not noisy although it was located off a busy freeway. Based on my previous stays in this particular motel, I have no hesitation to recommend this motel property to everyone who is looking for a decent accommodation at reasonable rate during their future visit in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r435224299-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>435224299</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Spa suite</t>
+  </si>
+  <si>
+    <t>This motel 6 is a wonderful place to shower,and relax after shopping at Walmart with your beautiful Queen while the 2 kids are at home sound asleep.I just believe a spa suite in many of the rooms is a dream for me,and Laurie.1999</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r383748374-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>383748374</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>The best Motel 6 I've ever stayed in</t>
+  </si>
+  <si>
+    <t>This Motel 6 is wonderful. The room was spotless, the staff was super friendly and the accommodations were outstanding -- modern, functional and efficient. I had requested a specific room and the staff has it ready for me upon check in; I didn't have to remind them what I wanted because they actually took the time to read the reservation and fulfilled my request.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r380949356-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>380949356</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>50th ECD reunion</t>
+  </si>
+  <si>
+    <t>It was wonderful!! Denny's is in walking distance and a gas station. Pool was clean and peaceful staff was very nice!! we shared laughs as I used to live here many yrs ago! actually had my wedding party stay here in 1986. Talked about the city many yrs. ago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r226320890-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>226320890</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Place to spend 1 night</t>
+  </si>
+  <si>
+    <t>We stayed here after visiting our friends. It wasn't too bad. There were some people smoking pot outside but we stayed in our room and didn't have any troubles. The room was updated and very clean at least as far as I could tell and we were able to sleep well.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r194586744-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>194586744</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Horrible stay in Motel 6 Hacienda Heights</t>
+  </si>
+  <si>
+    <t>This time, I would like to share my recent experience in staying at Motel 6 Hacienda Heights back in December 2013. It all started when I decided to check out from another Motel 6's property, Motel 6 Rosemead, after staying for three (3) nights over there and moved to this property, a decision I regretted it later on.
+I checked in this property around 10:00 am that morning and I did check-in based on walk-in as I had no reservation. Check-in was prompt as usual and fortunately, they allowed me to check in early that day but the only room available was in the other side of the main building. Since I had stayed couple of times in the past in this property, I did agree to occupy the room they assigned to me but I regretted my decision after entering the room.
+My room was quite smelly, humid and apparently it was not well maintained as the ones in the main building. However, since I had to leave the property shortly to meet one of my friends, I had no other choice than taking the room. I have been staying in various Motel 6 properties across USA for more than 15 years in my past trips and I could not even remember I had ever experienced in staying a room like this before.
+Bathroom was slightly okay but the sink was clogged. I did came to the front desk...This time, I would like to share my recent experience in staying at Motel 6 Hacienda Heights back in December 2013. It all started when I decided to check out from another Motel 6's property, Motel 6 Rosemead, after staying for three (3) nights over there and moved to this property, a decision I regretted it later on.I checked in this property around 10:00 am that morning and I did check-in based on walk-in as I had no reservation. Check-in was prompt as usual and fortunately, they allowed me to check in early that day but the only room available was in the other side of the main building. Since I had stayed couple of times in the past in this property, I did agree to occupy the room they assigned to me but I regretted my decision after entering the room.My room was quite smelly, humid and apparently it was not well maintained as the ones in the main building. However, since I had to leave the property shortly to meet one of my friends, I had no other choice than taking the room. I have been staying in various Motel 6 properties across USA for more than 15 years in my past trips and I could not even remember I had ever experienced in staying a room like this before.Bathroom was slightly okay but the sink was clogged. I did came to the front desk and told one of the female staffs working there who promised to fix this after the plumber returned back from his lunch but until I checked out, they never fixed it. Oh well, since this was a Motel 6, I would never bother to complain further but I decided that I would never stay again in this property.Overall, I don't really recommend anybody to stay in this particular Motel 6 especially when they assign a room in different building next to the main building due to its condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Owner at Motel 6 Los Angeles - Hacienda Heights, responded to this reviewResponded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2014</t>
+  </si>
+  <si>
+    <t>This time, I would like to share my recent experience in staying at Motel 6 Hacienda Heights back in December 2013. It all started when I decided to check out from another Motel 6's property, Motel 6 Rosemead, after staying for three (3) nights over there and moved to this property, a decision I regretted it later on.
+I checked in this property around 10:00 am that morning and I did check-in based on walk-in as I had no reservation. Check-in was prompt as usual and fortunately, they allowed me to check in early that day but the only room available was in the other side of the main building. Since I had stayed couple of times in the past in this property, I did agree to occupy the room they assigned to me but I regretted my decision after entering the room.
+My room was quite smelly, humid and apparently it was not well maintained as the ones in the main building. However, since I had to leave the property shortly to meet one of my friends, I had no other choice than taking the room. I have been staying in various Motel 6 properties across USA for more than 15 years in my past trips and I could not even remember I had ever experienced in staying a room like this before.
+Bathroom was slightly okay but the sink was clogged. I did came to the front desk...This time, I would like to share my recent experience in staying at Motel 6 Hacienda Heights back in December 2013. It all started when I decided to check out from another Motel 6's property, Motel 6 Rosemead, after staying for three (3) nights over there and moved to this property, a decision I regretted it later on.I checked in this property around 10:00 am that morning and I did check-in based on walk-in as I had no reservation. Check-in was prompt as usual and fortunately, they allowed me to check in early that day but the only room available was in the other side of the main building. Since I had stayed couple of times in the past in this property, I did agree to occupy the room they assigned to me but I regretted my decision after entering the room.My room was quite smelly, humid and apparently it was not well maintained as the ones in the main building. However, since I had to leave the property shortly to meet one of my friends, I had no other choice than taking the room. I have been staying in various Motel 6 properties across USA for more than 15 years in my past trips and I could not even remember I had ever experienced in staying a room like this before.Bathroom was slightly okay but the sink was clogged. I did came to the front desk and told one of the female staffs working there who promised to fix this after the plumber returned back from his lunch but until I checked out, they never fixed it. Oh well, since this was a Motel 6, I would never bother to complain further but I decided that I would never stay again in this property.Overall, I don't really recommend anybody to stay in this particular Motel 6 especially when they assign a room in different building next to the main building due to its condition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r186314646-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>186314646</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>RATs</t>
+  </si>
+  <si>
+    <t>Was impressed with room at first, it didn't smell. Woke up to a rat in the room. Moved to another room that smelled very musty :( so sad I'm sleeping here. Will never come here again. I don't think I can sleep anymore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r179639310-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>179639310</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>Best Motel 6 in the chain</t>
+  </si>
+  <si>
+    <t>I always stay at motel 6 when I'm traviling or in this case i was in between homes for about 3 month. In that time i stayed at 5 different motel 6's in the LA, Inland Empire area. There where all good , but the one that stood out the best for customer service, pet friendly, cleanness, and over all best experience with staff and others. I'm leaving tomorrow and just told about 7 of the workers thank you for making my stay super. thank you guys.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r121824101-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>121824101</t>
+  </si>
+  <si>
+    <t>12/17/2011</t>
+  </si>
+  <si>
+    <t>Stay away, stay far away......</t>
+  </si>
+  <si>
+    <t>Terrible location, filthy carpets and bed linens...... Emergency power loss forced me to stay here, almost decided I would be better off in my car.  Should have......</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r118369394-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>118369394</t>
+  </si>
+  <si>
+    <t>09/20/2011</t>
+  </si>
+  <si>
+    <t>Good option only if you can't afford more</t>
+  </si>
+  <si>
+    <t>One of the least expensive hotels around LA, close to the city of Industry. Noise is coming both from the nearby highway and air conditioning units, so this place is never quiet. I arrived at about 10 pm, the reception was locked and only a small bullet-proof window was half-open. Rooms are in reasonable condition.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r57711533-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>57711533</t>
+  </si>
+  <si>
+    <t>03/04/2010</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>If price is the sole determiner, you probably can't beat this motel.  I paid a little under $40 a night (before tax).  But, it is no frills, even by Motel 6 standards.  There is only coffee in the morning.  There is no microwave (room or lobby).  The bed in my room needed replacing (lumpy).  The biggest drawback for me:  the hotel is near a busy highway so there is continuous noise.  I left the fan running to drown it out.  WIFI costs an additional $3 a day.  The front office staff is fine and my room was cleaned each day to my satisfaction.  The neighborhood is safe.  A Denny's restaurant is walking distance from the motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>If price is the sole determiner, you probably can't beat this motel.  I paid a little under $40 a night (before tax).  But, it is no frills, even by Motel 6 standards.  There is only coffee in the morning.  There is no microwave (room or lobby).  The bed in my room needed replacing (lumpy).  The biggest drawback for me:  the hotel is near a busy highway so there is continuous noise.  I left the fan running to drown it out.  WIFI costs an additional $3 a day.  The front office staff is fine and my room was cleaned each day to my satisfaction.  The neighborhood is safe.  A Denny's restaurant is walking distance from the motel.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +909,774 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_542.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_542.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Sonya W</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>An unexpected medical emergency with my dog caused me to have an extended 7-day stay at this Motel 6 in Hacienda Heights. The first room I was given had a smokey odor, I asked for a new room, they happily obliged. Two days later, I checked out and then back in. The staff. already anticipating my smell issues asked if I would like to smell the next room first, I did, and it was fine. Motel 6 allows dogs at no extra charge, and the room has a faux wood floor which I really liked for the sole purpose of "knowing" what was on it versus a dark, patterned carpet. I wiped it down with wipes and paper towels every day, to make certain it was clean and kept my shoes off inside. (*The floors can get dirty-black fast due to the black pavement right outside the door.) The rest of the room and amenities are what you can expect from a 1 star, value motel, but overall the room was clean. However, it was the Staff that made this stay excellent; every single one I spoke with, from the front desk clerks to housekeeping, went above and beyond to make my stay comfortable. They were so very helpful, friendly and compassionate.More</t>
   </si>
   <si>
+    <t>Bambang S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r449442540-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>This time, I would like to share my experience staying at the Motel 6 Hacienda Heights in April 2016. I often stay in this hotel property in the past when I plan to visit Cabazon factory outlet the next morning as it is located off the 60 freeway half way to Cabazon. It is good for a night stay only.However, I was quite surprised to find that they did renovate the hotel's room totally during my stay this time. It gave a better feeling staying in a newly renovated room. Although the (renovated) room was not luxurious but it did serve its function. As I had mentioned, don't expect to find a 3~4 stars' facilities in this motel but it was fairly good enough for a night's stay at the price they had offered.No breakfast offered in the hotel, no wifi but someone would find free coffee in the lobby. The hotel property was fairly safe and it was not noisy although it was located off a busy freeway. Based on my previous stays in this particular motel, I have no hesitation to recommend this motel property to everyone who is looking for a decent accommodation at reasonable rate during their future visit in the area.More</t>
   </si>
   <si>
+    <t>Anthony B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r435224299-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>gonzalez310</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r383748374-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>cherylmN405EM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r380949356-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -268,6 +283,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Lngo05</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r226320890-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
@@ -324,6 +342,9 @@
 Bathroom was slightly okay but the sink was clogged. I did came to the front desk...This time, I would like to share my recent experience in staying at Motel 6 Hacienda Heights back in December 2013. It all started when I decided to check out from another Motel 6's property, Motel 6 Rosemead, after staying for three (3) nights over there and moved to this property, a decision I regretted it later on.I checked in this property around 10:00 am that morning and I did check-in based on walk-in as I had no reservation. Check-in was prompt as usual and fortunately, they allowed me to check in early that day but the only room available was in the other side of the main building. Since I had stayed couple of times in the past in this property, I did agree to occupy the room they assigned to me but I regretted my decision after entering the room.My room was quite smelly, humid and apparently it was not well maintained as the ones in the main building. However, since I had to leave the property shortly to meet one of my friends, I had no other choice than taking the room. I have been staying in various Motel 6 properties across USA for more than 15 years in my past trips and I could not even remember I had ever experienced in staying a room like this before.Bathroom was slightly okay but the sink was clogged. I did came to the front desk and told one of the female staffs working there who promised to fix this after the plumber returned back from his lunch but until I checked out, they never fixed it. Oh well, since this was a Motel 6, I would never bother to complain further but I decided that I would never stay again in this property.Overall, I don't really recommend anybody to stay in this particular Motel 6 especially when they assign a room in different building next to the main building due to its condition.More</t>
   </si>
   <si>
+    <t>626girl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r186314646-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -339,6 +360,9 @@
     <t>Was impressed with room at first, it didn't smell. Woke up to a rat in the room. Moved to another room that smelled very musty :( so sad I'm sleeping here. Will never come here again. I don't think I can sleep anymore</t>
   </si>
   <si>
+    <t>RayManhattan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r179639310-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Novajim2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r121824101-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>Terrible location, filthy carpets and bed linens...... Emergency power loss forced me to stay here, almost decided I would be better off in my car.  Should have......</t>
   </si>
   <si>
+    <t>ggabi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r118369394-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -388,6 +418,9 @@
   </si>
   <si>
     <t>August 2011</t>
+  </si>
+  <si>
+    <t>GuyinPalmSprings</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77144-r57711533-Motel_6_Los_Angeles_Hacienda_Heights-Hacienda_Heights_California.html</t>
@@ -913,43 +946,47 @@
       <c r="A2" t="n">
         <v>5901</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -965,56 +1002,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5901</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1032,50 +1073,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5901</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1089,50 +1134,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5901</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1152,50 +1201,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5901</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1215,50 +1268,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5901</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1276,50 +1333,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5901</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
         <v>96</v>
-      </c>
-      <c r="O8" t="s">
-        <v>90</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1341,47 +1402,51 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5901</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1410,50 +1475,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5901</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1477,41 +1546,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5901</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1540,50 +1613,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5901</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1607,50 +1684,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5901</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1674,7 +1755,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
